--- a/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/money_decomposer.xlsx
+++ b/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/money_decomposer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achilles/dissertation/24007552/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D17BA4-3EEC-CB42-899E-F428B2AA00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC749FA3-FEA5-5D43-86D1-3D999A031009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31600" yWindow="2920" windowWidth="27700" windowHeight="16860" xr2:uid="{88B35A5F-9B9E-8D4D-991A-B577C4B07D3A}"/>
+    <workbookView xWindow="-24920" yWindow="2800" windowWidth="27700" windowHeight="16860" xr2:uid="{88B35A5F-9B9E-8D4D-991A-B577C4B07D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>clustering</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Markov(MCL)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>α=0.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Multi-Dimension Metrics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ALCOM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,7 +110,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOO(max)</t>
+    <t>Approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Cutter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cromlech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation Result of Multi-Dimension Metrics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decomposer Tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markov (MCL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOO (max)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +184,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,39 +231,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,324 +608,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7E4EF-89FC-5E4B-A4EF-CA6B68821A1B}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="3" width="14.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" ht="24">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="44">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="44">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.28275240384615391</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.4698912198912199</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.15811965811965811</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.52055352055352055</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.63948848770277344</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.63948848770277344</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="66">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.28275240384615391</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.4698912198912199</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.78544061302681989</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.32307692307692298</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="22">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.15811965811965811</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.52055352055352055</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="66">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>9.5238095238095247E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.63948848770277344</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="44">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9.5238095238095247E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.63948848770277344</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.78544061302681989</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.32307692307692298</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C8" s="10">
+        <v>0.24348958333333329</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.74254079254079253</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.17057291666666671</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.85504079254079257</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.24348958333333329</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.74254079254079253</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="22">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.24348958333333329</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.74254079254079253</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22">
-      <c r="A9" s="3" t="s">
+      <c r="C12" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="44">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.24867724867724869</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="E18" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.17057291666666671</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.85504079254079257</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.24348958333333329</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.74254079254079253</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.15833333333333341</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.93229166666666663</v>
-      </c>
-      <c r="D17" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="44">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.24867724867724869</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.82666666666666666</v>
-      </c>
-      <c r="D18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
